--- a/biology/Botanique/Coulée_verte/Coulée_verte.xlsx
+++ b/biology/Botanique/Coulée_verte/Coulée_verte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coul%C3%A9e_verte</t>
+          <t>Coulée_verte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">On appelle coulée verte — ou parfois promenade plantée — un espace vert aménagé et protégé dans le cadre d'un plan d'urbanisation.
 Il peut avoir une vocation de corridor biologique et être un élément d'un réseau écologique ou s'inscrire dans un réseau de déplacements doux. Le concept de Trame verte et bleue s'y rattache, sur un périmètre plus étendu.
